--- a/Project 2 data dict book.xlsx
+++ b/Project 2 data dict book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\dsi\projects\project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C17973-445E-4903-B1AA-0BB9DA4DBBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BD8786-CC93-474D-B327-0EB29B8AE485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="2" xr2:uid="{6EBF22AD-8F7A-42C3-838A-202C95C1A0A1}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Data Dict" sheetId="1" r:id="rId1"/>
     <sheet name="Data Dict (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Prelim Features" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Idea-Resources" sheetId="2" r:id="rId6"/>
+    <sheet name="Prelim Features FMT" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Idea-Resources" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Dict (2)'!$A$1:$M$80</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="235">
   <si>
     <t>Codebook / Data Dictionary:</t>
   </si>
@@ -717,6 +718,27 @@
   </si>
   <si>
     <t>Use?</t>
+  </si>
+  <si>
+    <t>Ext. Ft. Count</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>High Corr.</t>
+  </si>
+  <si>
+    <t>Mod Corr</t>
+  </si>
+  <si>
+    <t>Practical Importance</t>
+  </si>
+  <si>
+    <t>Direct Value Measure</t>
+  </si>
+  <si>
+    <t>Time Sensitivity</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +2834,7 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E81" sqref="E81:H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5105,19 +5127,1231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F128062E-992F-4F85-849B-94104C55BCC5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="E23">
+        <f>SUM(E2:E22)</f>
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G2:G22)</f>
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <f>SUMPRODUCT(G2:G22,H2:H22)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="H28">
+        <f>45^2</f>
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E31C82-8B64-4666-98B2-74FAF285C4D5}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="D19">
+        <f>SUM(D2:D18)</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E12BD8-7FBD-477F-A4E8-24C03E2B74A6}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -5339,7 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8275D1D-C359-421C-BF9E-3A2373A61B67}">
   <dimension ref="A1:L73"/>
   <sheetViews>
@@ -5931,7 +7165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E93E2-3C19-4713-AB32-60FD920E478A}">
   <dimension ref="A2:A3"/>
   <sheetViews>

--- a/Project 2 data dict book.xlsx
+++ b/Project 2 data dict book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\dsi\projects\project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BD8786-CC93-474D-B327-0EB29B8AE485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081392DC-BCE3-4A22-A840-E313AE3B5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="2" xr2:uid="{6EBF22AD-8F7A-42C3-838A-202C95C1A0A1}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="Data Dict" sheetId="1" r:id="rId1"/>
     <sheet name="Data Dict (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Prelim Features" sheetId="6" r:id="rId3"/>
-    <sheet name="Prelim Features FMT" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
-    <sheet name="Idea-Resources" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="Prelim Features FMT" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Idea-Resources" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Dict (2)'!$A$1:$M$80</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="311">
   <si>
     <t>Codebook / Data Dictionary:</t>
   </si>
@@ -739,13 +740,241 @@
   </si>
   <si>
     <t>Time Sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SalePrice             2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1   Total Bsmt SF         2050 non-null   float64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2   Garage Area           2050 non-null   float64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3   Lot Area              2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4   Overall Qual          2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5   Year Remod/Add        2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6   Gr Liv Area           2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7   Bedroom AbvGr         2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8   Wood Deck SF          2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9   Pool Area             2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10  Misc Val              2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11  Yr Sold               2051 non-null   int64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12  Exter Cond            2051 non-null   object </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13  Heating QC            2051 non-null   object </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14  Kitchen Qual          2051 non-null   object </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15  Neighborhood_Blmngtn  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16  Neighborhood_Blueste  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17  Neighborhood_BrDale   2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18  Neighborhood_BrkSide  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19  Neighborhood_ClearCr  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20  Neighborhood_CollgCr  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21  Neighborhood_Crawfor  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22  Neighborhood_Edwards  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23  Neighborhood_Gilbert  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24  Neighborhood_Greens   2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25  Neighborhood_GrnHill  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26  Neighborhood_IDOTRR   2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27  Neighborhood_Landmrk  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28  Neighborhood_MeadowV  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29  Neighborhood_Mitchel  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30  Neighborhood_NAmes    2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31  Neighborhood_NPkVill  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32  Neighborhood_NWAmes   2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33  Neighborhood_NoRidge  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34  Neighborhood_NridgHt  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35  Neighborhood_OldTown  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36  Neighborhood_SWISU    2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37  Neighborhood_Sawyer   2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38  Neighborhood_SawyerW  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39  Neighborhood_Somerst  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40  Neighborhood_StoneBr  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41  Neighborhood_Timber   2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42  Neighborhood_Veenker  2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43  Bldg Type_1Fam        2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44  Bldg Type_2fmCon      2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45  Bldg Type_Duplex      2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46  Bldg Type_Twnhs       2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47  Bldg Type_TwnhsE      2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48  Paved Drive_N         2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49  Paved Drive_P         2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50  Paved Drive_Y         2051 non-null   uint8  </t>
+  </si>
+  <si>
+    <t>Blmngtn Bloomington Heights</t>
+  </si>
+  <si>
+    <t>Blueste Bluestem</t>
+  </si>
+  <si>
+    <t>BrDale Briardale</t>
+  </si>
+  <si>
+    <t>BrkSide Brookside</t>
+  </si>
+  <si>
+    <t>ClearCr Clear Creek</t>
+  </si>
+  <si>
+    <t>CollgCr College Creek</t>
+  </si>
+  <si>
+    <t>Crawfor Crawford</t>
+  </si>
+  <si>
+    <t>Edwards Edwards</t>
+  </si>
+  <si>
+    <t>Gilbert Gilbert</t>
+  </si>
+  <si>
+    <t>IDOTRR Iowa DOT and Rail Road</t>
+  </si>
+  <si>
+    <t>MeadowV Meadow Village</t>
+  </si>
+  <si>
+    <t>Mitchel Mitchell</t>
+  </si>
+  <si>
+    <t>Names North Ames</t>
+  </si>
+  <si>
+    <t>NoRidge Northridge</t>
+  </si>
+  <si>
+    <t>NPkVill Northpark Villa</t>
+  </si>
+  <si>
+    <t>NridgHt Northridge Heights</t>
+  </si>
+  <si>
+    <t>NWAmes Northwest Ames</t>
+  </si>
+  <si>
+    <t>OldTown Old Town</t>
+  </si>
+  <si>
+    <t>SWISU South &amp; West of Iowa State University</t>
+  </si>
+  <si>
+    <t>Sawyer Sawyer</t>
+  </si>
+  <si>
+    <t>SawyerW Sawyer West</t>
+  </si>
+  <si>
+    <t>Somerst Somerset</t>
+  </si>
+  <si>
+    <t>StoneBr Stone Brook</t>
+  </si>
+  <si>
+    <t>Timber Timberland</t>
+  </si>
+  <si>
+    <t>Veenker Veenker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +1012,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3C4043"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="9">
@@ -848,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -872,6 +1106,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5127,777 +5364,925 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F128062E-992F-4F85-849B-94104C55BCC5}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>227</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>178</v>
       </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
         <v>124</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>118</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" t="s">
-        <v>108</v>
-      </c>
       <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>J2+I3</f>
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>118</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>122</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>130</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4">
+        <f t="shared" ref="J4:J22" si="0">J3+I4</f>
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
         <v>118</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
       <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
         <v>122</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>118</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>162</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>126</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>122</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
         <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>118</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
       <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
         <v>122</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>118</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>216</v>
       </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
       <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
         <v>122</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>118</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>188</v>
       </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
       <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
         <v>122</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="F9">
         <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>118</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>192</v>
       </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
       <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
         <v>122</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
         <v>57</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>199</v>
       </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
       <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
         <v>122</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>118</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>222</v>
       </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
       <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
         <v>122</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>118</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>203</v>
       </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
       <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
         <v>122</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
         <v>76</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>118</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>78</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>205</v>
       </c>
-      <c r="C14" t="s">
-        <v>108</v>
-      </c>
       <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
         <v>122</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F14">
         <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
         <v>78</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>118</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>156</v>
       </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15">
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G18" t="s">
         <v>225</v>
       </c>
-      <c r="G15">
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L18" t="s">
         <v>118</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
+    <row r="19" spans="1:13">
+      <c r="A19">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>208</v>
       </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
         <v>225</v>
       </c>
-      <c r="G16">
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H19">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
         <v>118</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
+    <row r="20" spans="1:13">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>161</v>
       </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17">
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G20" t="s">
         <v>225</v>
       </c>
-      <c r="G17">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L20" t="s">
         <v>118</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
+    <row r="21" spans="1:13">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
         <v>209</v>
       </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18">
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G21" t="s">
         <v>225</v>
       </c>
-      <c r="G18">
+      <c r="H21">
         <v>7</v>
       </c>
-      <c r="H18">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
         <v>17</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L21" t="s">
         <v>118</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>198</v>
       </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
       <c r="D22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>225</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
         <v>66</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>118</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="E23">
-        <f>SUM(E2:E22)</f>
-        <v>88</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G2:G22)</f>
-        <v>71</v>
+    <row r="23" spans="1:13">
+      <c r="F23">
+        <f>SUM(F2:F22)</f>
+        <v>91</v>
       </c>
       <c r="H23">
-        <f>SUMPRODUCT(G2:G22,H2:H22)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="H28">
+        <f>SUM(H2:H22)</f>
+        <v>74</v>
+      </c>
+      <c r="I23">
+        <f>SUMPRODUCT(H2:H22,I2:I22)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="I28">
         <f>45^2</f>
         <v>2025</v>
       </c>
@@ -5908,11 +6293,360 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9073133-9192-47E3-A1B3-75FC2635256F}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.399999999999999">
+      <c r="A17" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.399999999999999">
+      <c r="A18" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.399999999999999">
+      <c r="A19" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30.6">
+      <c r="A20" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.6">
+      <c r="A21" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.399999999999999">
+      <c r="A22" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E31C82-8B64-4666-98B2-74FAF285C4D5}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6351,7 +7085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E12BD8-7FBD-477F-A4E8-24C03E2B74A6}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -6573,7 +7307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8275D1D-C359-421C-BF9E-3A2373A61B67}">
   <dimension ref="A1:L73"/>
   <sheetViews>
@@ -7165,7 +7899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E93E2-3C19-4713-AB32-60FD920E478A}">
   <dimension ref="A2:A3"/>
   <sheetViews>

--- a/Project 2 data dict book.xlsx
+++ b/Project 2 data dict book.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\dsi\projects\project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081392DC-BCE3-4A22-A840-E313AE3B5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD69A4BD-CEF5-4592-9971-959A5AB384FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="2" xr2:uid="{6EBF22AD-8F7A-42C3-838A-202C95C1A0A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6EBF22AD-8F7A-42C3-838A-202C95C1A0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dict" sheetId="1" r:id="rId1"/>
     <sheet name="Data Dict (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Prelim Features" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
-    <sheet name="Prelim Features FMT" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
-    <sheet name="Idea-Resources" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="Prelim Features FMT" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId8"/>
+    <sheet name="Idea-Resources" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Dict (2)'!$A$1:$M$80</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="354">
   <si>
     <t>Codebook / Data Dictionary:</t>
   </si>
@@ -968,6 +969,135 @@
   </si>
   <si>
     <t>Veenker Veenker</t>
+  </si>
+  <si>
+    <t>Total Bsmt SF</t>
+  </si>
+  <si>
+    <t>Garage Area</t>
+  </si>
+  <si>
+    <t>Overall Qual</t>
+  </si>
+  <si>
+    <t>Year Remod/Add</t>
+  </si>
+  <si>
+    <t>Gr Liv Area</t>
+  </si>
+  <si>
+    <t>Mas Vnr Area</t>
+  </si>
+  <si>
+    <t>Fireplaces</t>
+  </si>
+  <si>
+    <t>Total Bsmt SF^2</t>
+  </si>
+  <si>
+    <t>Total Bsmt SF Garage Area</t>
+  </si>
+  <si>
+    <t>Total Bsmt SF Overall Qual</t>
+  </si>
+  <si>
+    <t>Total Bsmt SF Year Remod/Add</t>
+  </si>
+  <si>
+    <t>Total Bsmt SF Gr Liv Area</t>
+  </si>
+  <si>
+    <t>Total Bsmt SF Mas Vnr Area</t>
+  </si>
+  <si>
+    <t>Total Bsmt SF Fireplaces</t>
+  </si>
+  <si>
+    <t>Garage Area^2</t>
+  </si>
+  <si>
+    <t>Garage Area Overall Qual</t>
+  </si>
+  <si>
+    <t>Garage Area Year Remod/Add</t>
+  </si>
+  <si>
+    <t>Garage Area Gr Liv Area</t>
+  </si>
+  <si>
+    <t>Garage Area Mas Vnr Area</t>
+  </si>
+  <si>
+    <t>Garage Area Fireplaces</t>
+  </si>
+  <si>
+    <t>Overall Qual^2</t>
+  </si>
+  <si>
+    <t>Overall Qual Year Remod/Add</t>
+  </si>
+  <si>
+    <t>Overall Qual Gr Liv Area</t>
+  </si>
+  <si>
+    <t>Overall Qual Mas Vnr Area</t>
+  </si>
+  <si>
+    <t>Overall Qual Fireplaces</t>
+  </si>
+  <si>
+    <t>Year Remod/Add^2</t>
+  </si>
+  <si>
+    <t>Year Remod/Add Gr Liv Area</t>
+  </si>
+  <si>
+    <t>Year Remod/Add Mas Vnr Area</t>
+  </si>
+  <si>
+    <t>Year Remod/Add Fireplaces</t>
+  </si>
+  <si>
+    <t>Gr Liv Area^2</t>
+  </si>
+  <si>
+    <t>Gr Liv Area Mas Vnr Area</t>
+  </si>
+  <si>
+    <t>Gr Liv Area Fireplaces</t>
+  </si>
+  <si>
+    <t>Mas Vnr Area^2</t>
+  </si>
+  <si>
+    <t>Mas Vnr Area Fireplaces</t>
+  </si>
+  <si>
+    <t>Fireplaces^2</t>
+  </si>
+  <si>
+    <t>Neighborhood_Edwards</t>
+  </si>
+  <si>
+    <t>Neighborhood_IDOTRR</t>
+  </si>
+  <si>
+    <t>Neighborhood_NAmes</t>
+  </si>
+  <si>
+    <t>Neighborhood_NoRidge</t>
+  </si>
+  <si>
+    <t>Neighborhood_NridgHt</t>
+  </si>
+  <si>
+    <t>Neighborhood_OldTown</t>
+  </si>
+  <si>
+    <t>Neighborhood_Somerst</t>
+  </si>
+  <si>
+    <t>Neighborhood_StoneBr</t>
   </si>
 </sst>
 </file>
@@ -5366,7 +5496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F128062E-992F-4F85-849B-94104C55BCC5}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -6293,6 +6423,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE77BB08-8FA1-4410-9F9F-CB260D671213}">
+  <dimension ref="C3:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9073133-9192-47E3-A1B3-75FC2635256F}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -6388,7 +6878,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.399999999999999">
+    <row r="17" spans="1:7">
       <c r="A17" s="13" t="s">
         <v>251</v>
       </c>
@@ -6396,7 +6886,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.399999999999999">
+    <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
         <v>252</v>
       </c>
@@ -6404,7 +6894,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.399999999999999">
+    <row r="19" spans="1:7">
       <c r="A19" s="13" t="s">
         <v>253</v>
       </c>
@@ -6412,7 +6902,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30.6">
+    <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
         <v>254</v>
       </c>
@@ -6420,7 +6910,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30.6">
+    <row r="21" spans="1:7">
       <c r="A21" s="13" t="s">
         <v>255</v>
       </c>
@@ -6428,7 +6918,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.399999999999999">
+    <row r="22" spans="1:7">
       <c r="A22" s="13" t="s">
         <v>256</v>
       </c>
@@ -6641,7 +7131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E31C82-8B64-4666-98B2-74FAF285C4D5}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -7085,7 +7575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E12BD8-7FBD-477F-A4E8-24C03E2B74A6}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -7307,7 +7797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8275D1D-C359-421C-BF9E-3A2373A61B67}">
   <dimension ref="A1:L73"/>
   <sheetViews>
@@ -7899,7 +8389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E93E2-3C19-4713-AB32-60FD920E478A}">
   <dimension ref="A2:A3"/>
   <sheetViews>

--- a/Project 2 data dict book.xlsx
+++ b/Project 2 data dict book.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\dsi\projects\project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD69A4BD-CEF5-4592-9971-959A5AB384FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560A6C46-8110-4F26-AD95-EEBF96696110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6EBF22AD-8F7A-42C3-838A-202C95C1A0A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="8" xr2:uid="{6EBF22AD-8F7A-42C3-838A-202C95C1A0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dict" sheetId="1" r:id="rId1"/>
     <sheet name="Data Dict (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Prelim Features" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
-    <sheet name="Prelim Features FMT" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId8"/>
-    <sheet name="Idea-Resources" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="Prelim Features FMT" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Idea-Resources" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Dict (2)'!$A$1:$M$80</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="365">
   <si>
     <t>Codebook / Data Dictionary:</t>
   </si>
@@ -1098,13 +1098,46 @@
   </si>
   <si>
     <t>Neighborhood_StoneBr</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Kaggle, Ames, Iowa</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>Float64</t>
+  </si>
+  <si>
+    <t>Second order interaction term</t>
+  </si>
+  <si>
+    <t>First order interaction term</t>
+  </si>
+  <si>
+    <t>Derived</t>
+  </si>
+  <si>
+    <t>Kaggle, Ames, Iowa, Encoded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,6 +1180,12 @@
       <sz val="8"/>
       <color rgb="FF3C4043"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -6423,366 +6462,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE77BB08-8FA1-4410-9F9F-CB260D671213}">
-  <dimension ref="C3:D45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41">
-        <v>38</v>
-      </c>
-      <c r="D41" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42">
-        <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45">
-        <v>42</v>
-      </c>
-      <c r="D45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9073133-9192-47E3-A1B3-75FC2635256F}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -7131,7 +6810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E31C82-8B64-4666-98B2-74FAF285C4D5}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -7575,7 +7254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E12BD8-7FBD-477F-A4E8-24C03E2B74A6}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -7797,7 +7476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8275D1D-C359-421C-BF9E-3A2373A61B67}">
   <dimension ref="A1:L73"/>
   <sheetViews>
@@ -8389,7 +8068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E93E2-3C19-4713-AB32-60FD920E478A}">
   <dimension ref="A2:A3"/>
   <sheetViews>
@@ -8418,4 +8097,772 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE77BB08-8FA1-4410-9F9F-CB260D671213}">
+  <dimension ref="C2:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="D2:G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="D2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" t="s">
+        <v>360</v>
+      </c>
+      <c r="F15" t="s">
+        <v>363</v>
+      </c>
+      <c r="G15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" t="s">
+        <v>363</v>
+      </c>
+      <c r="G17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F18" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" t="s">
+        <v>363</v>
+      </c>
+      <c r="G19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E20" t="s">
+        <v>360</v>
+      </c>
+      <c r="F20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" t="s">
+        <v>363</v>
+      </c>
+      <c r="G21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F22" t="s">
+        <v>363</v>
+      </c>
+      <c r="G22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" t="s">
+        <v>360</v>
+      </c>
+      <c r="F23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F24" t="s">
+        <v>363</v>
+      </c>
+      <c r="G24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" t="s">
+        <v>360</v>
+      </c>
+      <c r="F25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F26" t="s">
+        <v>363</v>
+      </c>
+      <c r="G26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>335</v>
+      </c>
+      <c r="E27" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27" t="s">
+        <v>363</v>
+      </c>
+      <c r="G27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" t="s">
+        <v>363</v>
+      </c>
+      <c r="G28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" t="s">
+        <v>360</v>
+      </c>
+      <c r="F29" t="s">
+        <v>363</v>
+      </c>
+      <c r="G29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F31" t="s">
+        <v>363</v>
+      </c>
+      <c r="G31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" t="s">
+        <v>360</v>
+      </c>
+      <c r="F32" t="s">
+        <v>363</v>
+      </c>
+      <c r="G32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>341</v>
+      </c>
+      <c r="E33" t="s">
+        <v>360</v>
+      </c>
+      <c r="F33" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" t="s">
+        <v>360</v>
+      </c>
+      <c r="F34" t="s">
+        <v>363</v>
+      </c>
+      <c r="G34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" t="s">
+        <v>360</v>
+      </c>
+      <c r="F35" t="s">
+        <v>363</v>
+      </c>
+      <c r="G35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" t="s">
+        <v>363</v>
+      </c>
+      <c r="G36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37" t="s">
+        <v>360</v>
+      </c>
+      <c r="F37" t="s">
+        <v>363</v>
+      </c>
+      <c r="G37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" t="s">
+        <v>364</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>347</v>
+      </c>
+      <c r="E39" t="s">
+        <v>359</v>
+      </c>
+      <c r="F39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>348</v>
+      </c>
+      <c r="E40" t="s">
+        <v>359</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" t="s">
+        <v>364</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" t="s">
+        <v>359</v>
+      </c>
+      <c r="F42" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>352</v>
+      </c>
+      <c r="E44" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>353</v>
+      </c>
+      <c r="E45" t="s">
+        <v>359</v>
+      </c>
+      <c r="F45" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>